--- a/Участок ремонта форм/Формокомплекты/Журналы/Журнал учета форм_оборот форм (слесаря).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Журналы/Журнал учета форм_оборот форм (слесаря).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="15132" windowHeight="8088" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="15132" windowHeight="8088" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Вариант 2 Образец" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Вариант 2 Образец'!$A$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Вариант 2 Образец'!$A$1:$G$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Лист 1'!$A$1:$M$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Лист 2'!$A$1:$M$26</definedName>
   </definedNames>
@@ -373,39 +373,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,9 +429,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:colOff>897466</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2335540" cy="787399"/>
     <xdr:sp macro="" textlink="">
@@ -441,7 +441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4089400" y="59267"/>
+          <a:off x="3793066" y="101600"/>
           <a:ext cx="2335540" cy="787399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -510,7 +510,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>179917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -559,7 +559,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>179917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -922,11 +922,11 @@
         <v>24</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -936,121 +936,121 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -1076,11 +1076,11 @@
         <v>24</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1090,121 +1090,121 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1231,11 +1231,11 @@
         <v>24</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -1245,121 +1245,121 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36" t="s">
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1554,18 +1554,44 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:I21"/>
@@ -1573,44 +1599,18 @@
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1622,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:I7"/>
     </sheetView>
   </sheetViews>
@@ -1648,11 +1648,11 @@
         <v>24</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1662,121 +1662,121 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -1802,11 +1802,11 @@
         <v>24</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1816,121 +1816,121 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1957,11 +1957,11 @@
         <v>24</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -1971,121 +1971,121 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36" t="s">
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -2280,18 +2280,44 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:I21"/>
@@ -2299,44 +2325,18 @@
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2346,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,52 +2392,22 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="I3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="13"/>
-    </row>
-    <row r="4" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="I4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -2445,7 +2415,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -2460,253 +2430,283 @@
       <c r="AH4" s="13"/>
     </row>
     <row r="5" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="19" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="13"/>
-    </row>
-    <row r="6" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="43" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="29" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="13"/>
-    </row>
-    <row r="7" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="41" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="29" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="13"/>
-    </row>
-    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="13"/>
+    </row>
+    <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="41" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="29" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="13"/>
-    </row>
-    <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="13"/>
+    </row>
+    <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40">
+      <c r="B10" s="41"/>
+      <c r="C10" s="47">
         <v>4</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="30" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="13"/>
-    </row>
-    <row r="10" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="13"/>
     </row>
     <row r="11" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="24"/>
+      <c r="E11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="18"/>
@@ -2730,78 +2730,78 @@
       <c r="E16" s="18"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="9"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="28"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="17"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2860,78 +2860,77 @@
       <c r="E32" s="3"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="9"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="17"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18"/>
     </row>
@@ -2942,6 +2941,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
@@ -2991,13 +2991,13 @@
       <c r="E48" s="3"/>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
@@ -3033,47 +3033,55 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="R5:Y5"/>
-    <mergeCell ref="Z5:AG5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="Z7:AC7"/>
     <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="Z6:AG6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.59055118110236227" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
